--- a/final_outputs/data/Kenya_Governance_By_The_Numbers.xlsx
+++ b/final_outputs/data/Kenya_Governance_By_The_Numbers.xlsx
@@ -603,7 +603,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>{'data_sources': 'National Treasury, KNBS, World Bank, IMF, EACC, OAG, CoB, UNICEF', 'period_covered': '2014-2025', 'last_updated': '2025-12-21T21:37:52.190541', 'methodology': 'Official statistics, audit reports, research data', 'confidence_level': 'High for official data, Medium for estimates'}</t>
+          <t>{'data_sources': 'National Treasury, KNBS, World Bank, IMF, EACC, OAG, CoB, UNICEF', 'period_covered': '2014-2025', 'last_updated': '2025-12-22T00:08:07.826979', 'methodology': 'Official statistics, audit reports, research data', 'confidence_level': 'High for official data, Medium for estimates'}</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">

--- a/final_outputs/data/Kenya_Governance_By_The_Numbers.xlsx
+++ b/final_outputs/data/Kenya_Governance_By_The_Numbers.xlsx
@@ -603,7 +603,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>{'data_sources': 'National Treasury, KNBS, World Bank, IMF, EACC, OAG, CoB, UNICEF', 'period_covered': '2014-2025', 'last_updated': '2025-12-22T00:08:07.826979', 'methodology': 'Official statistics, audit reports, research data', 'confidence_level': 'High for official data, Medium for estimates'}</t>
+          <t>{'data_sources': 'National Treasury, KNBS, World Bank, IMF, EACC, OAG, CoB, UNICEF', 'period_covered': '2014-2025', 'last_updated': '2025-12-29T16:25:34.130260', 'methodology': 'Official statistics, audit reports, research data', 'confidence_level': 'High for official data, Medium for estimates'}</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">

--- a/final_outputs/data/Kenya_Governance_By_The_Numbers.xlsx
+++ b/final_outputs/data/Kenya_Governance_By_The_Numbers.xlsx
@@ -603,7 +603,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>{'data_sources': 'National Treasury, KNBS, World Bank, IMF, EACC, OAG, CoB, UNICEF', 'period_covered': '2014-2025', 'last_updated': '2025-12-29T16:25:34.130260', 'methodology': 'Official statistics, audit reports, research data', 'confidence_level': 'High for official data, Medium for estimates'}</t>
+          <t>{'data_sources': 'National Treasury, KNBS, World Bank, IMF, EACC, OAG, CoB, UNICEF', 'period_covered': '2014-2025', 'last_updated': '2025-12-30T08:31:54.116220', 'methodology': 'Official statistics, audit reports, research data', 'confidence_level': 'High for official data, Medium for estimates'}</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
